--- a/excelsheet/alumniTestimonialData.xlsx
+++ b/excelsheet/alumniTestimonialData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">CTC</t>
   </si>
   <si>
+    <t xml:space="preserve">PHOTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">DESCRIPTION</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">60 Lakhs</t>
   </si>
   <si>
+    <t xml:space="preserve">M1.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anuj Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t xml:space="preserve">30 Lakhs</t>
   </si>
   <si>
+    <t xml:space="preserve">M4.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elroy Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t xml:space="preserve">Eclipse</t>
   </si>
   <si>
+    <t xml:space="preserve">M7.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aditya Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
   </si>
   <si>
@@ -82,7 +94,13 @@
     <t xml:space="preserve">40 Lakhs</t>
   </si>
   <si>
-    <t xml:space="preserve">Aneesh Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+    <t xml:space="preserve">Aneeesh Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulal Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
   </si>
 </sst>
 </file>
@@ -92,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -118,11 +136,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,15 +193,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,10 +320,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -327,11 +332,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -347,74 +353,108 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/excelsheet/alumniTestimonialData.xlsx
+++ b/excelsheet/alumniTestimonialData.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">DESCRIPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">Anuj</t>
+    <t xml:space="preserve">name1</t>
   </si>
   <si>
     <t xml:space="preserve">CSE</t>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">M1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Anuj Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elroy</t>
+    <t xml:space="preserve">name1 Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name2</t>
   </si>
   <si>
     <t xml:space="preserve">Flipkart</t>
@@ -70,10 +70,10 @@
     <t xml:space="preserve">M4.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Elroy Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya</t>
+    <t xml:space="preserve">name2 Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name3</t>
   </si>
   <si>
     <t xml:space="preserve">Eclipse</t>
@@ -82,10 +82,10 @@
     <t xml:space="preserve">M7.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Aditya Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aneesh</t>
+    <t xml:space="preserve">name3 Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name4</t>
   </si>
   <si>
     <t xml:space="preserve">Microsoft</t>
@@ -94,13 +94,13 @@
     <t xml:space="preserve">40 Lakhs</t>
   </si>
   <si>
-    <t xml:space="preserve">Aneeesh Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulal Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+    <t xml:space="preserve">name4 Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name5 Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
   </si>
 </sst>
 </file>
@@ -115,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,6 +137,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,15 +187,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,7 +325,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excelsheet/alumniTestimonialData.xlsx
+++ b/excelsheet/alumniTestimonialData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -94,13 +94,43 @@
     <t xml:space="preserve">40 Lakhs</t>
   </si>
   <si>
+    <t xml:space="preserve">M5.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">name4 Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
   </si>
   <si>
     <t xml:space="preserve">name5</t>
   </si>
   <si>
+    <t xml:space="preserve">F3.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">name5 Lorem ipsum dolor sit amet consectetur adipisicing elit. Vel obcaecati assumenda maiores eligendi sapiente odit omnis quis laboriosam possimus, praesentium quasi id officiis, dolores quaerat voluptatibus reprehenderit autem eius! Quae autem vitae deserunt delectus id? Iusto accusamus odit nulla veniam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 Lakhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 Lakhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1.jpg</t>
   </si>
 </sst>
 </file>
@@ -110,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,6 +169,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +231,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,10 +361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,15 +472,15 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -453,10 +492,50 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
